--- a/individual_results/avey/308.xlsx
+++ b/individual_results/avey/308.xlsx
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -721,9 +721,7 @@
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P4" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.6666666666666666</v>
@@ -774,9 +772,7 @@
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.3125</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.5555555555555556</v>
@@ -846,7 +842,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -919,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="b">
         <v>0</v>
@@ -992,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1065,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1117,9 +1113,7 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>1</v>
